--- a/ExcelProcessor.WPF/bin/Debug/net6.0-windows/data/Output/EXCEL/1111.xlsx
+++ b/ExcelProcessor.WPF/bin/Debug/net6.0-windows/data/Output/EXCEL/1111.xlsx
@@ -7,6 +7,7 @@
   <sheets>
     <sheet name="QQQQEWQ" sheetId="1" r:id="rId1"/>
     <sheet name="QQQQEWQ1" sheetId="2" r:id="rId3"/>
+    <sheet name="11QQQQEWQ1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -5127,7 +5128,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G869"/>
+  <dimension ref="A1:G931"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25129,6 +25130,2903 @@
         <v>244</v>
       </c>
     </row>
+    <row r="870">
+      <c r="A870" s="0">
+        <v>1489</v>
+      </c>
+      <c r="B870" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C870" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D870" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E870" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F870" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G870" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="0">
+        <v>1490</v>
+      </c>
+      <c r="B871" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C871" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D871" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E871" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F871" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G871" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="0">
+        <v>1491</v>
+      </c>
+      <c r="B872" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C872" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D872" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E872" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F872" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G872" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="0">
+        <v>1492</v>
+      </c>
+      <c r="B873" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C873" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D873" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E873" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F873" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G873" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="0">
+        <v>1493</v>
+      </c>
+      <c r="B874" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C874" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D874" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E874" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F874" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G874" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="0">
+        <v>1494</v>
+      </c>
+      <c r="B875" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C875" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D875" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E875" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F875" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G875" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="0">
+        <v>1495</v>
+      </c>
+      <c r="B876" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C876" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D876" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E876" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F876" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G876" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="0">
+        <v>1496</v>
+      </c>
+      <c r="B877" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D877" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E877" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F877" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G877" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="0">
+        <v>1497</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C878" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D878" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E878" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F878" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G878" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="0">
+        <v>1498</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C879" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D879" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E879" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F879" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G879" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="0">
+        <v>1499</v>
+      </c>
+      <c r="B880" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C880" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D880" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E880" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F880" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G880" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="0">
+        <v>1500</v>
+      </c>
+      <c r="B881" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C881" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D881" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E881" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F881" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G881" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="0">
+        <v>1501</v>
+      </c>
+      <c r="B882" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C882" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D882" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E882" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F882" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G882" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="0">
+        <v>1502</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C883" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D883" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E883" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F883" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G883" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="0">
+        <v>1503</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C884" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D884" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E884" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F884" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G884" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="0">
+        <v>1504</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C885" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D885" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E885" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F885" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G885" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="0">
+        <v>1505</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C886" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D886" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E886" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F886" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G886" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="0">
+        <v>1506</v>
+      </c>
+      <c r="B887" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C887" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D887" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E887" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F887" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G887" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="0">
+        <v>1507</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C888" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D888" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E888" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F888" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G888" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="0">
+        <v>1508</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C889" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D889" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E889" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F889" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G889" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="0">
+        <v>1509</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C890" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D890" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E890" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F890" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G890" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="0">
+        <v>1510</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C891" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D891" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E891" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F891" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G891" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="0">
+        <v>1511</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C892" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D892" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E892" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F892" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G892" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="0">
+        <v>1512</v>
+      </c>
+      <c r="B893" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C893" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D893" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E893" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F893" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G893" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="0">
+        <v>1513</v>
+      </c>
+      <c r="B894" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C894" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D894" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E894" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F894" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G894" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="0">
+        <v>1514</v>
+      </c>
+      <c r="B895" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C895" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D895" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E895" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F895" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G895" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="0">
+        <v>1515</v>
+      </c>
+      <c r="B896" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C896" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D896" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E896" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F896" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G896" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="0">
+        <v>1516</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C897" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D897" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E897" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F897" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G897" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="0">
+        <v>1517</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C898" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D898" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E898" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F898" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G898" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="0">
+        <v>1518</v>
+      </c>
+      <c r="B899" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C899" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D899" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E899" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F899" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G899" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="0">
+        <v>1519</v>
+      </c>
+      <c r="B900" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C900" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D900" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E900" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F900" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G900" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="0">
+        <v>1520</v>
+      </c>
+      <c r="B901" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C901" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D901" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E901" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F901" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G901" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="0">
+        <v>1521</v>
+      </c>
+      <c r="B902" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C902" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D902" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E902" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F902" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G902" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="0">
+        <v>1522</v>
+      </c>
+      <c r="B903" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C903" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D903" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E903" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F903" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G903" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="0">
+        <v>1523</v>
+      </c>
+      <c r="B904" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C904" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D904" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E904" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F904" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G904" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="0">
+        <v>1524</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C905" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D905" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E905" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F905" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G905" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="0">
+        <v>1525</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C906" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D906" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E906" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F906" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G906" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="0">
+        <v>1526</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C907" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D907" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E907" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F907" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G907" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="0">
+        <v>1527</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C908" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D908" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E908" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F908" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G908" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="0">
+        <v>1528</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C909" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D909" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E909" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F909" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G909" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="0">
+        <v>1529</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C910" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D910" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E910" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F910" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G910" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="0">
+        <v>1530</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C911" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D911" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E911" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F911" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G911" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="0">
+        <v>1531</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C912" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D912" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E912" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F912" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G912" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="0">
+        <v>1532</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C913" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D913" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E913" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F913" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G913" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="0">
+        <v>1533</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C914" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D914" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E914" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F914" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G914" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="0">
+        <v>1534</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C915" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D915" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E915" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F915" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G915" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="0">
+        <v>1535</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C916" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D916" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E916" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F916" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G916" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="0">
+        <v>1536</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C917" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D917" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E917" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F917" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G917" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="0">
+        <v>1537</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C918" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D918" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E918" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F918" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G918" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="0">
+        <v>1538</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C919" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D919" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E919" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F919" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G919" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="0">
+        <v>1539</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C920" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D920" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E920" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F920" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G920" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="0">
+        <v>1540</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C921" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D921" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E921" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F921" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G921" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="0">
+        <v>1541</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C922" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D922" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E922" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F922" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G922" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="0">
+        <v>1542</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C923" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D923" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E923" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F923" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G923" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="0">
+        <v>1543</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C924" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D924" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E924" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F924" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G924" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="0">
+        <v>1544</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C925" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D925" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E925" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F925" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G925" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="0">
+        <v>1545</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C926" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D926" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E926" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F926" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G926" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="0">
+        <v>1546</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C927" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D927" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E927" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F927" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G927" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="0">
+        <v>1547</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D928" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E928" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F928" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G928" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="0">
+        <v>1548</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C929" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D929" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E929" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F929" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G929" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="0">
+        <v>1549</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C930" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D930" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E930" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F930" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G930" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="0">
+        <v>1550</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C931" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D931" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E931" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F931" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G931" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.147878646850586" customWidth="1"/>
+    <col min="3" max="3" width="14.96949291229248" customWidth="1"/>
+    <col min="4" max="4" width="12.147878646850586" customWidth="1"/>
+    <col min="5" max="5" width="22.059337615966797" customWidth="1"/>
+    <col min="6" max="6" width="12.147878646850586" customWidth="1"/>
+    <col min="7" max="7" width="26.806360244750977" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1489</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1490</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1491</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1492</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1493</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1494</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1495</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1496</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1497</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1498</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1499</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1500</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1501</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1502</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1503</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1504</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1505</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>1506</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>1507</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>1508</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1509</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>1510</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>1511</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>1512</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>1513</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>1514</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>1515</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>1516</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>1517</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>1518</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1519</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>1520</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>1521</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>1522</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1523</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>1524</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>1525</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>1526</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>1527</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>1528</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>1529</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>1530</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>1531</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>1532</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>1533</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>1534</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>1535</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>1536</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>1537</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>1538</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>1539</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>1540</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>1541</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>1542</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>1543</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>1544</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>1545</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>1546</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>1547</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>1548</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>1549</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>1550</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/ExcelProcessor.WPF/bin/Debug/net6.0-windows/data/Output/EXCEL/1111.xlsx
+++ b/ExcelProcessor.WPF/bin/Debug/net6.0-windows/data/Output/EXCEL/1111.xlsx
@@ -5128,7 +5128,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G931"/>
+  <dimension ref="A1:G1055"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26553,6 +26553,2858 @@
         <v>243</v>
       </c>
       <c r="G931" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="0">
+        <v>1675</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C932" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D932" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E932" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F932" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G932" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="0">
+        <v>1676</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C933" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D933" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E933" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F933" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G933" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="0">
+        <v>1677</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C934" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D934" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E934" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F934" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G934" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="0">
+        <v>1678</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C935" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D935" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E935" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F935" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G935" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="0">
+        <v>1679</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C936" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D936" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E936" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F936" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G936" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="0">
+        <v>1680</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C937" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D937" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E937" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F937" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G937" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="0">
+        <v>1681</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C938" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D938" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E938" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F938" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G938" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="0">
+        <v>1682</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D939" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E939" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F939" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G939" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="0">
+        <v>1683</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C940" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D940" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E940" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F940" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G940" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="0">
+        <v>1684</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C941" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D941" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E941" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F941" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G941" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="0">
+        <v>1685</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C942" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D942" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E942" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F942" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G942" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="0">
+        <v>1686</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C943" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D943" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E943" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F943" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G943" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="0">
+        <v>1687</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C944" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D944" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E944" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F944" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G944" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="0">
+        <v>1688</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C945" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D945" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E945" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F945" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G945" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="0">
+        <v>1689</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C946" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D946" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E946" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F946" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G946" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="0">
+        <v>1690</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C947" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D947" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E947" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F947" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G947" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="0">
+        <v>1691</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C948" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D948" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E948" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F948" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G948" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="0">
+        <v>1692</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C949" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D949" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E949" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F949" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G949" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="0">
+        <v>1693</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C950" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D950" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E950" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F950" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G950" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="0">
+        <v>1694</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C951" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D951" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E951" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F951" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G951" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="0">
+        <v>1695</v>
+      </c>
+      <c r="B952" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C952" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D952" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E952" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F952" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G952" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="0">
+        <v>1696</v>
+      </c>
+      <c r="B953" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C953" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D953" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E953" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F953" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G953" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="0">
+        <v>1697</v>
+      </c>
+      <c r="B954" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C954" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D954" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E954" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F954" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G954" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="0">
+        <v>1698</v>
+      </c>
+      <c r="B955" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C955" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D955" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E955" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F955" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G955" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="0">
+        <v>1699</v>
+      </c>
+      <c r="B956" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C956" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D956" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E956" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F956" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G956" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="0">
+        <v>1700</v>
+      </c>
+      <c r="B957" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C957" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D957" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E957" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F957" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G957" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="0">
+        <v>1701</v>
+      </c>
+      <c r="B958" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C958" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D958" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E958" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F958" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G958" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="0">
+        <v>1702</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C959" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D959" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E959" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F959" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G959" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="0">
+        <v>1703</v>
+      </c>
+      <c r="B960" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C960" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D960" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E960" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F960" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G960" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="0">
+        <v>1704</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C961" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D961" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E961" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F961" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G961" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="0">
+        <v>1705</v>
+      </c>
+      <c r="B962" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C962" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D962" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E962" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F962" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G962" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="0">
+        <v>1706</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C963" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D963" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E963" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F963" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G963" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="0">
+        <v>1707</v>
+      </c>
+      <c r="B964" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C964" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D964" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E964" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F964" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G964" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="0">
+        <v>1708</v>
+      </c>
+      <c r="B965" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C965" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D965" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E965" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F965" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G965" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="0">
+        <v>1709</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C966" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D966" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E966" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F966" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G966" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="0">
+        <v>1710</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C967" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D967" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E967" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F967" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G967" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="0">
+        <v>1711</v>
+      </c>
+      <c r="B968" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C968" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D968" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E968" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F968" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G968" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="0">
+        <v>1712</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C969" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D969" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E969" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F969" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G969" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="0">
+        <v>1713</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C970" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D970" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E970" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F970" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G970" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="0">
+        <v>1714</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C971" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D971" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E971" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F971" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G971" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="0">
+        <v>1715</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C972" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D972" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E972" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F972" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G972" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="0">
+        <v>1716</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C973" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D973" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E973" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F973" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G973" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="0">
+        <v>1717</v>
+      </c>
+      <c r="B974" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C974" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D974" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E974" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F974" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G974" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="0">
+        <v>1718</v>
+      </c>
+      <c r="B975" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C975" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D975" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E975" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F975" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G975" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="0">
+        <v>1719</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C976" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D976" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E976" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F976" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G976" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="0">
+        <v>1720</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C977" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D977" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E977" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F977" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G977" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="0">
+        <v>1721</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C978" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D978" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E978" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F978" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G978" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="0">
+        <v>1722</v>
+      </c>
+      <c r="B979" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C979" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D979" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E979" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F979" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G979" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="0">
+        <v>1723</v>
+      </c>
+      <c r="B980" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C980" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D980" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E980" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F980" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G980" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="0">
+        <v>1724</v>
+      </c>
+      <c r="B981" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C981" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D981" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E981" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F981" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G981" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="0">
+        <v>1725</v>
+      </c>
+      <c r="B982" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C982" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D982" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E982" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F982" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G982" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="0">
+        <v>1726</v>
+      </c>
+      <c r="B983" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C983" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D983" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E983" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F983" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G983" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="0">
+        <v>1727</v>
+      </c>
+      <c r="B984" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C984" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D984" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E984" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F984" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G984" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="0">
+        <v>1728</v>
+      </c>
+      <c r="B985" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C985" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D985" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E985" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F985" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G985" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="0">
+        <v>1729</v>
+      </c>
+      <c r="B986" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C986" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D986" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E986" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F986" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G986" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="0">
+        <v>1730</v>
+      </c>
+      <c r="B987" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C987" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D987" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E987" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F987" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G987" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="0">
+        <v>1731</v>
+      </c>
+      <c r="B988" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C988" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D988" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E988" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F988" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G988" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="0">
+        <v>1732</v>
+      </c>
+      <c r="B989" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C989" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D989" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E989" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F989" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G989" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="0">
+        <v>1733</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C990" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D990" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E990" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F990" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G990" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="0">
+        <v>1734</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C991" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D991" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E991" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F991" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G991" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="0">
+        <v>1735</v>
+      </c>
+      <c r="B992" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C992" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D992" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E992" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F992" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G992" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="0">
+        <v>1736</v>
+      </c>
+      <c r="B993" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C993" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D993" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E993" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F993" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G993" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="0">
+        <v>1737</v>
+      </c>
+      <c r="B994" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C994" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D994" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E994" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F994" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G994" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="0">
+        <v>1738</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C995" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D995" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E995" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F995" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G995" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="0">
+        <v>1739</v>
+      </c>
+      <c r="B996" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C996" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D996" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E996" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F996" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G996" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="0">
+        <v>1740</v>
+      </c>
+      <c r="B997" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C997" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D997" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E997" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F997" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G997" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="0">
+        <v>1741</v>
+      </c>
+      <c r="B998" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C998" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D998" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E998" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F998" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G998" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="0">
+        <v>1742</v>
+      </c>
+      <c r="B999" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C999" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D999" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E999" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F999" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G999" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="0">
+        <v>1743</v>
+      </c>
+      <c r="B1000" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1000" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1000" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1000" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1000" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1000" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="0">
+        <v>1744</v>
+      </c>
+      <c r="B1001" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1001" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1001" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1001" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1001" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1001" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="0">
+        <v>1745</v>
+      </c>
+      <c r="B1002" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1002" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1002" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1002" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1002" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1002" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="0">
+        <v>1746</v>
+      </c>
+      <c r="B1003" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1003" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1003" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1003" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1003" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1003" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="0">
+        <v>1747</v>
+      </c>
+      <c r="B1004" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1004" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1004" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1004" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1004" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1004" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="0">
+        <v>1748</v>
+      </c>
+      <c r="B1005" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1005" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1005" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1005" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1005" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1005" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="0">
+        <v>1749</v>
+      </c>
+      <c r="B1006" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1006" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1006" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1006" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1006" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1006" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="0">
+        <v>1750</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1007" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1007" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1007" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1007" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1007" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="0">
+        <v>1751</v>
+      </c>
+      <c r="B1008" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1008" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1008" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1008" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1008" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1008" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="0">
+        <v>1752</v>
+      </c>
+      <c r="B1009" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1009" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1009" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1009" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1009" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1009" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="0">
+        <v>1753</v>
+      </c>
+      <c r="B1010" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1010" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1010" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1010" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1010" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1010" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="0">
+        <v>1754</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1011" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1011" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1011" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1011" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1011" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="0">
+        <v>1755</v>
+      </c>
+      <c r="B1012" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1012" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1012" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1012" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1012" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1012" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="0">
+        <v>1756</v>
+      </c>
+      <c r="B1013" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1013" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1013" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1013" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1013" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1013" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="0">
+        <v>1757</v>
+      </c>
+      <c r="B1014" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1014" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1014" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1014" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1014" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1014" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="0">
+        <v>1758</v>
+      </c>
+      <c r="B1015" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1015" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1015" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1015" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1015" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1015" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="0">
+        <v>1759</v>
+      </c>
+      <c r="B1016" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1016" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1016" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1016" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1016" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1016" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="0">
+        <v>1760</v>
+      </c>
+      <c r="B1017" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1017" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1017" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1017" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1017" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1017" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="0">
+        <v>1761</v>
+      </c>
+      <c r="B1018" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1018" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1018" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1018" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1018" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1018" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="0">
+        <v>1762</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1019" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1019" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1019" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1019" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1019" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="0">
+        <v>1763</v>
+      </c>
+      <c r="B1020" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1020" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1020" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1020" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1020" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1020" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="0">
+        <v>1764</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1021" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1021" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1021" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1021" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1021" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="0">
+        <v>1765</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1022" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1022" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1022" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1022" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1022" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="0">
+        <v>1766</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1023" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1023" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1023" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1023" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1023" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="0">
+        <v>1767</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1024" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1024" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1024" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1024" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1024" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="0">
+        <v>1768</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1025" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1025" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1025" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1025" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1025" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="0">
+        <v>1769</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1026" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1026" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1026" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1026" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1026" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="0">
+        <v>1770</v>
+      </c>
+      <c r="B1027" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1027" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1027" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1027" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1027" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1027" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="0">
+        <v>1771</v>
+      </c>
+      <c r="B1028" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1028" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1028" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1028" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1028" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1028" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="0">
+        <v>1772</v>
+      </c>
+      <c r="B1029" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1029" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1029" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1029" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1029" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="0">
+        <v>1773</v>
+      </c>
+      <c r="B1030" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1030" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1030" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1030" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1030" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1030" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="0">
+        <v>1774</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1031" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1031" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1031" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1031" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1031" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="0">
+        <v>1775</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1032" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1032" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1032" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1032" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1032" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="0">
+        <v>1776</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1033" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1033" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1033" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1033" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1033" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="0">
+        <v>1777</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1034" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1034" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1034" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1034" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1034" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="0">
+        <v>1778</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1035" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1035" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1035" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1035" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="0">
+        <v>1779</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1036" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1036" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1036" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1036" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1036" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="0">
+        <v>1780</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1037" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1037" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1037" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1037" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1037" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="0">
+        <v>1781</v>
+      </c>
+      <c r="B1038" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1038" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1038" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1038" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1038" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1038" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="0">
+        <v>1782</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1039" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1039" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1039" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1039" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="0">
+        <v>1783</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1040" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1040" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1040" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1040" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="0">
+        <v>1784</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1041" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1041" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1041" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1041" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1041" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="0">
+        <v>1785</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1042" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1042" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1042" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1042" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1042" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="0">
+        <v>1786</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1043" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1043" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1043" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1043" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1043" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="0">
+        <v>1787</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1044" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1044" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1044" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1044" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="0">
+        <v>1788</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1045" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1045" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1045" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1045" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1045" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="0">
+        <v>1789</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1046" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1046" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1046" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1046" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1046" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="0">
+        <v>1790</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1047" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1047" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1047" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1047" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="0">
+        <v>1791</v>
+      </c>
+      <c r="B1048" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1048" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1048" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1048" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1048" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1048" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="0">
+        <v>1792</v>
+      </c>
+      <c r="B1049" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1049" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1049" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1049" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1049" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1049" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="0">
+        <v>1793</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1050" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1050" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1050" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1050" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1050" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="0">
+        <v>1794</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1051" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1051" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1051" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1051" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1051" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="0">
+        <v>1795</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1052" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1052" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1052" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1052" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1052" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="0">
+        <v>1796</v>
+      </c>
+      <c r="B1053" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1053" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1053" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1053" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1053" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1053" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="0">
+        <v>1797</v>
+      </c>
+      <c r="B1054" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1054" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1054" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1054" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1054" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1054" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="0">
+        <v>1798</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1055" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1055" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1055" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1055" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1055" s="0" t="s">
         <v>244</v>
       </c>
     </row>
